--- a/roadsign/roadsign.xlsx
+++ b/roadsign/roadsign.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\roadsign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4B27D-05A1-4520-B02F-CDB21C439D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DCECE-437D-447B-9564-DDE01D6CC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>addon</t>
   </si>
@@ -392,6 +403,26 @@
   </si>
   <si>
     <t>has_selective_choose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ooboke/hato/kannami_modified_by_Physka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intro_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>intro_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atc_cabsignal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atc_cabsignal_choose</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -741,13 +772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -756,9 +787,10 @@
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,8 +839,14 @@
       <c r="P1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -819,7 +857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -837,7 +875,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -886,8 +924,14 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>1895</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -936,8 +980,14 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>1895</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -986,8 +1036,14 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>1895</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1035,6 +1091,124 @@
       </c>
       <c r="P7">
         <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1895</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1964</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1964</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1047,13 +1221,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J7</xm:sqref>
+          <xm:sqref>J4:J9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A573077-6971-43A6-9366-58428995594A}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G7 G4</xm:sqref>
+          <xm:sqref>G4:G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
